--- a/uk-ets-app-registry/uk-ets-registry-api/src/test/resources/AD_HOC_EMAIL_RECIPIENTS_NO_EMAIL.xlsx
+++ b/uk-ets-app-registry/uk-ets-registry-api/src/test/resources/AD_HOC_EMAIL_RECIPIENTS_NO_EMAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arxakoulini/uk-ets-home/ukets/uk-ets-app-registry/uk-ets-registry-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\uk-ets-home\ukets\uk-ets-app-registry\uk-ets-registry-api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC78B7-0D4F-1D45-885C-ACDFC5F3ACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE6120-E741-4C82-9757-A454CA588A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{99EE48C5-D850-BD45-97C0-CFCD67FCCBA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{99EE48C5-D850-BD45-97C0-CFCD67FCCBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Surname</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>test surname 1</t>
+  </si>
+  <si>
+    <t>test name 12</t>
+  </si>
+  <si>
+    <t>test surname 12</t>
+  </si>
+  <si>
+    <t>test@</t>
   </si>
 </sst>
 </file>
@@ -100,8 +109,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,17 +445,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>3</v>
@@ -466,10 +475,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{9DC720E1-F867-46EB-A1BF-E02DF7EA9381}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>